--- a/assets/documents/PROD_FABRICANTE.xlsx
+++ b/assets/documents/PROD_FABRICANTE.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\Proyectos\GeospatialTechnology\erp-React\erp-react\server\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\Proyectos\GeospatialTechnology\Documentacion\GeospatialTechnology.github.io\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>COD_FABRICANTE</t>
   </si>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">KNORR                         </t>
   </si>
   <si>
-    <t xml:space="preserve">MODINE (VISCONDE)             </t>
+    <t xml:space="preserve">VISCONDE (MODINE)             </t>
   </si>
   <si>
     <t xml:space="preserve">RUCK RET                      </t>
@@ -320,9 +320,6 @@
     <t xml:space="preserve">GLOBO                         </t>
   </si>
   <si>
-    <t xml:space="preserve">MEC PAR / STAHL               </t>
-  </si>
-  <si>
     <t xml:space="preserve">WABCO                         </t>
   </si>
   <si>
@@ -494,7 +491,7 @@
     <t xml:space="preserve">BRC                           </t>
   </si>
   <si>
-    <t xml:space="preserve">DIESEL TECHNIC                </t>
+    <t xml:space="preserve">DIESEL T. CNI / PERIM         </t>
   </si>
   <si>
     <t xml:space="preserve">LNG                           </t>
@@ -560,7 +557,7 @@
     <t xml:space="preserve">TEKSENSOR                     </t>
   </si>
   <si>
-    <t xml:space="preserve">RESERPLASTIC                  </t>
+    <t xml:space="preserve">RESERPLAST                    </t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL CONEXOES                </t>
@@ -623,7 +620,7 @@
     <t xml:space="preserve">REBIBRAS / UNION              </t>
   </si>
   <si>
-    <t xml:space="preserve">FABBOF/FADO                   </t>
+    <t xml:space="preserve">FABBOF/ FADO                  </t>
   </si>
   <si>
     <t xml:space="preserve">GF LANTERNAS                  </t>
@@ -648,6 +645,90 @@
   </si>
   <si>
     <t xml:space="preserve">TXT RETEN                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMOBRAS                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERPLAST / FABBOF           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKL SENSORES                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGE                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORI / EMBRYM                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONA REVEST                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL FIBRAS                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNI                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINELATO                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGA                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORT                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDREAZA                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ AUTOMOTIVE                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARFLEX                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLDROP                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS ITALIANA                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKF                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAG                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRTECH                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD DIESEL                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EURORICAMBI                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGUIM RAD                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMICAR                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICENTI                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIFAP                        </t>
   </si>
 </sst>
 </file>
@@ -683,14 +764,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF97F165"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -999,22 +1086,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1022,7 +1110,7 @@
       <c r="A2">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1030,7 +1118,7 @@
       <c r="A3">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1038,7 +1126,7 @@
       <c r="A4">
         <v>117</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1046,7 +1134,7 @@
       <c r="A5">
         <v>118</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1054,7 +1142,7 @@
       <c r="A6">
         <v>119</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1062,7 +1150,7 @@
       <c r="A7">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1070,7 +1158,7 @@
       <c r="A8">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1078,7 +1166,7 @@
       <c r="A9">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1086,7 +1174,7 @@
       <c r="A10">
         <v>123</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1094,7 +1182,7 @@
       <c r="A11">
         <v>124</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1102,7 +1190,7 @@
       <c r="A12">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1110,7 +1198,7 @@
       <c r="A13">
         <v>126</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1118,7 +1206,7 @@
       <c r="A14">
         <v>127</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1126,7 +1214,7 @@
       <c r="A15">
         <v>128</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1134,7 +1222,7 @@
       <c r="A16">
         <v>132</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1142,7 +1230,7 @@
       <c r="A17">
         <v>133</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1150,7 +1238,7 @@
       <c r="A18">
         <v>134</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1158,7 +1246,7 @@
       <c r="A19">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1166,7 +1254,7 @@
       <c r="A20">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1174,7 +1262,7 @@
       <c r="A21">
         <v>137</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1182,7 +1270,7 @@
       <c r="A22">
         <v>138</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1190,7 +1278,7 @@
       <c r="A23">
         <v>139</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1198,7 +1286,7 @@
       <c r="A24">
         <v>140</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1206,7 +1294,7 @@
       <c r="A25">
         <v>141</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1214,7 +1302,7 @@
       <c r="A26">
         <v>142</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1222,7 +1310,7 @@
       <c r="A27">
         <v>143</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1230,7 +1318,7 @@
       <c r="A28">
         <v>144</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1238,7 +1326,7 @@
       <c r="A29">
         <v>145</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1246,7 +1334,7 @@
       <c r="A30">
         <v>146</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1254,7 +1342,7 @@
       <c r="A31">
         <v>147</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1262,7 +1350,7 @@
       <c r="A32">
         <v>148</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1270,7 +1358,7 @@
       <c r="A33">
         <v>149</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1278,7 +1366,7 @@
       <c r="A34">
         <v>152</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1286,7 +1374,7 @@
       <c r="A35">
         <v>153</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1294,7 +1382,7 @@
       <c r="A36">
         <v>154</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1302,7 +1390,7 @@
       <c r="A37">
         <v>155</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1310,7 +1398,7 @@
       <c r="A38">
         <v>156</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1318,7 +1406,7 @@
       <c r="A39">
         <v>157</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1326,7 +1414,7 @@
       <c r="A40">
         <v>158</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1334,7 +1422,7 @@
       <c r="A41">
         <v>159</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1342,7 +1430,7 @@
       <c r="A42">
         <v>160</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1350,7 +1438,7 @@
       <c r="A43">
         <v>161</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1358,7 +1446,7 @@
       <c r="A44">
         <v>162</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1366,7 +1454,7 @@
       <c r="A45">
         <v>163</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1374,7 +1462,7 @@
       <c r="A46">
         <v>164</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1382,7 +1470,7 @@
       <c r="A47">
         <v>165</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1390,7 +1478,7 @@
       <c r="A48">
         <v>166</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1398,7 +1486,7 @@
       <c r="A49">
         <v>167</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1406,7 +1494,7 @@
       <c r="A50">
         <v>168</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1414,7 +1502,7 @@
       <c r="A51">
         <v>169</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1422,7 +1510,7 @@
       <c r="A52">
         <v>171</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1430,7 +1518,7 @@
       <c r="A53">
         <v>172</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1438,7 +1526,7 @@
       <c r="A54">
         <v>173</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1446,7 +1534,7 @@
       <c r="A55">
         <v>174</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1454,7 +1542,7 @@
       <c r="A56">
         <v>175</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1462,7 +1550,7 @@
       <c r="A57">
         <v>176</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1470,7 +1558,7 @@
       <c r="A58">
         <v>177</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1478,7 +1566,7 @@
       <c r="A59">
         <v>178</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1486,7 +1574,7 @@
       <c r="A60">
         <v>179</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1494,7 +1582,7 @@
       <c r="A61">
         <v>180</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1502,7 +1590,7 @@
       <c r="A62">
         <v>181</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1510,7 +1598,7 @@
       <c r="A63">
         <v>182</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1518,7 +1606,7 @@
       <c r="A64">
         <v>183</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1526,7 +1614,7 @@
       <c r="A65">
         <v>185</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1534,7 +1622,7 @@
       <c r="A66">
         <v>187</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1542,7 +1630,7 @@
       <c r="A67">
         <v>188</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1550,7 +1638,7 @@
       <c r="A68">
         <v>190</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1558,7 +1646,7 @@
       <c r="A69">
         <v>191</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1566,7 +1654,7 @@
       <c r="A70">
         <v>192</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1574,7 +1662,7 @@
       <c r="A71">
         <v>193</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1582,7 +1670,7 @@
       <c r="A72">
         <v>194</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1590,7 +1678,7 @@
       <c r="A73">
         <v>195</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1598,7 +1686,7 @@
       <c r="A74">
         <v>196</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1606,7 +1694,7 @@
       <c r="A75">
         <v>197</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1614,7 +1702,7 @@
       <c r="A76">
         <v>198</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1622,7 +1710,7 @@
       <c r="A77">
         <v>199</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1630,7 +1718,7 @@
       <c r="A78">
         <v>200</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1638,7 +1726,7 @@
       <c r="A79">
         <v>201</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1646,7 +1734,7 @@
       <c r="A80">
         <v>202</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1654,7 +1742,7 @@
       <c r="A81">
         <v>203</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1662,7 +1750,7 @@
       <c r="A82">
         <v>204</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1670,7 +1758,7 @@
       <c r="A83">
         <v>205</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1678,7 +1766,7 @@
       <c r="A84">
         <v>206</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1686,7 +1774,7 @@
       <c r="A85">
         <v>207</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1694,7 +1782,7 @@
       <c r="A86">
         <v>208</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1702,7 +1790,7 @@
       <c r="A87">
         <v>209</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1710,7 +1798,7 @@
       <c r="A88">
         <v>210</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1718,7 +1806,7 @@
       <c r="A89">
         <v>211</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1726,7 +1814,7 @@
       <c r="A90">
         <v>212</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1734,7 +1822,7 @@
       <c r="A91">
         <v>213</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1742,7 +1830,7 @@
       <c r="A92">
         <v>214</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1750,7 +1838,7 @@
       <c r="A93">
         <v>215</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1758,904 +1846,1112 @@
       <c r="A94">
         <v>216</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>217</v>
-      </c>
-      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>218</v>
-      </c>
-      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>219</v>
-      </c>
-      <c r="B97" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>220</v>
-      </c>
-      <c r="B98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>221</v>
-      </c>
-      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>222</v>
-      </c>
-      <c r="B100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>223</v>
-      </c>
-      <c r="B101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>224</v>
-      </c>
-      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>225</v>
-      </c>
-      <c r="B103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>226</v>
-      </c>
-      <c r="B104" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>227</v>
-      </c>
-      <c r="B105" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>228</v>
-      </c>
-      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>229</v>
-      </c>
-      <c r="B107" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>230</v>
-      </c>
-      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>231</v>
-      </c>
-      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>232</v>
-      </c>
-      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>233</v>
-      </c>
-      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>234</v>
-      </c>
-      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>235</v>
-      </c>
-      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>236</v>
-      </c>
-      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>237</v>
-      </c>
-      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>238</v>
-      </c>
-      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>239</v>
-      </c>
-      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>240</v>
-      </c>
-      <c r="B118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>241</v>
-      </c>
-      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>242</v>
-      </c>
-      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>243</v>
-      </c>
-      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>244</v>
-      </c>
-      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>245</v>
-      </c>
-      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>246</v>
-      </c>
-      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>247</v>
-      </c>
-      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>248</v>
-      </c>
-      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>250</v>
-      </c>
-      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>251</v>
-      </c>
-      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>252</v>
-      </c>
-      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>253</v>
-      </c>
-      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>254</v>
-      </c>
-      <c r="B131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>255</v>
-      </c>
-      <c r="B132" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>256</v>
-      </c>
-      <c r="B133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>257</v>
-      </c>
-      <c r="B134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>258</v>
-      </c>
-      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>259</v>
-      </c>
-      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>260</v>
-      </c>
-      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>261</v>
-      </c>
-      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>262</v>
-      </c>
-      <c r="B139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>263</v>
-      </c>
-      <c r="B140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>264</v>
-      </c>
-      <c r="B141" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>265</v>
-      </c>
-      <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>266</v>
-      </c>
-      <c r="B143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>267</v>
-      </c>
-      <c r="B144" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>269</v>
-      </c>
-      <c r="B145" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>270</v>
-      </c>
-      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>271</v>
-      </c>
-      <c r="B147" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>272</v>
-      </c>
-      <c r="B148" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>273</v>
-      </c>
-      <c r="B149" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>274</v>
-      </c>
-      <c r="B150" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>275</v>
-      </c>
-      <c r="B151" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>276</v>
-      </c>
-      <c r="B152" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>277</v>
-      </c>
-      <c r="B153" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>278</v>
-      </c>
-      <c r="B154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>279</v>
-      </c>
-      <c r="B155" t="s">
+        <v>280</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>280</v>
-      </c>
-      <c r="B156" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>281</v>
-      </c>
-      <c r="B157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>282</v>
-      </c>
-      <c r="B158" t="s">
+        <v>283</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>283</v>
-      </c>
-      <c r="B159" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>284</v>
-      </c>
-      <c r="B160" t="s">
+        <v>285</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>285</v>
-      </c>
-      <c r="B161" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>286</v>
-      </c>
-      <c r="B162" t="s">
+        <v>287</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>287</v>
-      </c>
-      <c r="B163" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>288</v>
-      </c>
-      <c r="B164" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>289</v>
-      </c>
-      <c r="B165" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>290</v>
-      </c>
-      <c r="B166" t="s">
+        <v>293</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>291</v>
-      </c>
-      <c r="B167" t="s">
-        <v>43</v>
+        <v>294</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>293</v>
-      </c>
-      <c r="B168" t="s">
-        <v>167</v>
+        <v>295</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>294</v>
-      </c>
-      <c r="B169" t="s">
-        <v>168</v>
+        <v>296</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>295</v>
-      </c>
-      <c r="B170" t="s">
+        <v>297</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>296</v>
-      </c>
-      <c r="B171" t="s">
+        <v>298</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>297</v>
-      </c>
-      <c r="B172" t="s">
-        <v>170</v>
+        <v>299</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>298</v>
-      </c>
-      <c r="B173" t="s">
-        <v>171</v>
+        <v>300</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>299</v>
-      </c>
-      <c r="B174" t="s">
-        <v>172</v>
+        <v>301</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>300</v>
-      </c>
-      <c r="B175" t="s">
-        <v>173</v>
+        <v>302</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>301</v>
-      </c>
-      <c r="B176" t="s">
-        <v>174</v>
+        <v>303</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>302</v>
-      </c>
-      <c r="B177" t="s">
-        <v>175</v>
+        <v>304</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>303</v>
-      </c>
-      <c r="B178" t="s">
-        <v>176</v>
+        <v>305</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>304</v>
-      </c>
-      <c r="B179" t="s">
-        <v>177</v>
+        <v>306</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>305</v>
-      </c>
-      <c r="B180" t="s">
-        <v>178</v>
+        <v>307</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>306</v>
-      </c>
-      <c r="B181" t="s">
-        <v>179</v>
+        <v>308</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>307</v>
-      </c>
-      <c r="B182" t="s">
-        <v>180</v>
+        <v>309</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>308</v>
-      </c>
-      <c r="B183" t="s">
-        <v>181</v>
+        <v>310</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>309</v>
-      </c>
-      <c r="B184" t="s">
-        <v>182</v>
+        <v>311</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>310</v>
-      </c>
-      <c r="B185" t="s">
-        <v>183</v>
+        <v>312</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>311</v>
-      </c>
-      <c r="B186" t="s">
-        <v>184</v>
+        <v>313</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>312</v>
-      </c>
-      <c r="B187" t="s">
-        <v>185</v>
+        <v>314</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>313</v>
-      </c>
-      <c r="B188" t="s">
-        <v>186</v>
+        <v>315</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>314</v>
-      </c>
-      <c r="B189" t="s">
-        <v>187</v>
+        <v>316</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>315</v>
-      </c>
-      <c r="B190" t="s">
-        <v>188</v>
+        <v>317</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>316</v>
-      </c>
-      <c r="B191" t="s">
-        <v>189</v>
+        <v>318</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>317</v>
-      </c>
-      <c r="B192" t="s">
-        <v>190</v>
+        <v>319</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>318</v>
-      </c>
-      <c r="B193" t="s">
-        <v>191</v>
+        <v>1319</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>319</v>
-      </c>
-      <c r="B194" t="s">
-        <v>192</v>
+        <v>1320</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1319</v>
-      </c>
-      <c r="B195" t="s">
-        <v>193</v>
+        <v>1321</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1320</v>
-      </c>
-      <c r="B196" t="s">
-        <v>194</v>
+        <v>1322</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1321</v>
-      </c>
-      <c r="B197" t="s">
-        <v>195</v>
+        <v>1323</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1322</v>
-      </c>
-      <c r="B198" t="s">
-        <v>196</v>
+        <v>1324</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1323</v>
-      </c>
-      <c r="B199" t="s">
-        <v>197</v>
+        <v>1325</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1324</v>
-      </c>
-      <c r="B200" t="s">
-        <v>198</v>
+        <v>1326</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1325</v>
-      </c>
-      <c r="B201" t="s">
-        <v>199</v>
+        <v>1327</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>1326</v>
-      </c>
-      <c r="B202" t="s">
-        <v>200</v>
+        <v>1328</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>1327</v>
-      </c>
-      <c r="B203" t="s">
-        <v>201</v>
+        <v>1329</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>1328</v>
-      </c>
-      <c r="B204" t="s">
-        <v>202</v>
+        <v>1331</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>1329</v>
-      </c>
-      <c r="B205" t="s">
-        <v>203</v>
+        <v>1332</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>1331</v>
-      </c>
-      <c r="B206" t="s">
-        <v>204</v>
+        <v>1333</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1334</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1335</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1336</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1338</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1339</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1340</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1341</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1342</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1343</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1344</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1345</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1346</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1347</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1348</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1349</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1350</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1351</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1352</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1353</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1354</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1355</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1356</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1357</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1358</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1359</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1360</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
